--- a/biology/Zoologie/Eunica_sophonisba/Eunica_sophonisba.xlsx
+++ b/biology/Zoologie/Eunica_sophonisba/Eunica_sophonisba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Eunica sophonisba  est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae, tribu des Epicaliini, du genre Eunica .
 </t>
@@ -511,50 +523,157 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Eunica sophonisba a été décrite par le naturaliste hollandais Pieter Cramer en 1780, sous le nom initial de Papilio sophonisba.
-Synonymie
-Papilio sophonisba Cramer, 1780 - protonyme
-Taxinomie
-Il existe 2 sous-espèces
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eunica_sophonisba</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_sophonisba</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Papilio sophonisba Cramer, 1780 - protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eunica_sophonisba</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_sophonisba</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il existe 2 sous-espèces
 Eunica sophonisba sophonisba (Cramer, 1780)
 Synonymie pour cette sous-espèce
 Eunica sophonisba mossi (Hall, 1928)
 Eunica sophonisba agele (Seitz, 1915)
 Synonymie pour cette sous-espèce
-Eunica falsata (Oberthür, 1916)
-Noms vernaculaires
- Eunica sophonisba se nomme Glorious Purplewing en anglais[1].
+Eunica falsata (Oberthür, 1916)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eunica_sophonisba</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_sophonisba</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica sophonisba se nomme Glorious Purplewing en anglais.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eunica_sophonisba</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eunica_sophonisba</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eunica_sophonisba</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_sophonisba</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Eunica sophonisba  présente un dessus marron suffusé de bleu ou noir aux ailes postérieures très largement bordées de bleu métallisé.
 Le revers est bleu clair ornementé de taches et dessins noirs et aux ailes postérieures d'une bande jaune d'or allant de la base au milieu du bord externe.
@@ -562,69 +681,142 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eunica_sophonisba</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eunica_sophonisba</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eunica_sophonisba</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_sophonisba</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sa biologie est mal connue[1].
-Période de vol
-Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Eunica_sophonisba</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eunica_sophonisba</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie est mal connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eunica_sophonisba</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_sophonisba</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Eunica sophonisba est présent au Venezuela, au Guatemala, en Guyane, en Surinam, en Colombie, en Équateur, en Bolivie, au Pérou et au Brésil dans le bassin de l'Amazone[1],[2].
-Biotope
- Eunica sophonisba réside à basse altitude en forêt primaire[1].
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica sophonisba est présent au Venezuela, au Guatemala, en Guyane, en Surinam, en Colombie, en Équateur, en Bolivie, au Pérou et au Brésil dans le bassin de l'Amazone,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eunica_sophonisba</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_sophonisba</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica sophonisba réside à basse altitude en forêt primaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eunica_sophonisba</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_sophonisba</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Eunica sophonisba, sur Wikimedia CommonsEunica sophonisba, sur Wikispecies
 </t>
